--- a/Assets/03.Prefabs/Data/MonsterData.xlsx
+++ b/Assets/03.Prefabs/Data/MonsterData.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>MonsterIndexNumber</t>
   </si>
@@ -48,6 +48,9 @@
   <si>
     <t>교전지상</t>
   </si>
+  <si>
+    <t>불가사리</t>
+  </si>
 </sst>
 </file>
 
@@ -80,12 +83,15 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -392,7 +398,30 @@
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="B4" s="1"/>
+      <c r="A4" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2000.0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2.2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="H4" s="2">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="B5" s="1"/>
